--- a/dates_prev_2020complet.xlsx
+++ b/dates_prev_2020complet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitedauphine-my.sharepoint.com/personal/marie_bessec_dauphine_psl_eu/Documents/Documents/Nowcasting-with-LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3B79F01BDE862B1973C2938B460858B842FDACC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDE0889-9B76-425D-9B9A-914FFA5EBC8B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3B79F01BDE862B1973C2938B460858B842FDACC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FA8C19-95B2-40CA-B394-9221AFFD2346}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="900" windowWidth="9105" windowHeight="7282" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -758,7 +759,7 @@
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>44208</v>
       </c>
     </row>
